--- a/auto_python2/dataconfig/interface.xlsx
+++ b/auto_python2/dataconfig/interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630"/>
+    <workbookView windowWidth="23730" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Id</t>
   </si>
@@ -51,7 +51,7 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>实际结果</t>
+    <t>执行结果</t>
   </si>
   <si>
     <t>登录成功</t>
@@ -69,10 +69,16 @@
     <t>LoginTrue</t>
   </si>
   <si>
+    <t>"status": 200</t>
+  </si>
+  <si>
     <t>登录失败</t>
   </si>
   <si>
     <t>LoginFalse</t>
+  </si>
+  <si>
+    <t>"status": 10000013</t>
   </si>
 </sst>
 </file>
@@ -80,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,9 +100,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,86 +190,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,22 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,6 +232,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +253,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,114 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,43 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +462,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -473,29 +488,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +506,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,8 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,137 +579,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1073,7 +1076,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1083,6 +1086,7 @@
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="17.125" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1143,12 +1147,14 @@
         <v>14</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
@@ -1156,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1174,9 +1180,11 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
   </sheetData>
